--- a/biology/Botanique/Éclipte_blanche/Éclipte_blanche.xlsx
+++ b/biology/Botanique/Éclipte_blanche/Éclipte_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89clipte_blanche</t>
+          <t>Éclipte_blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eclipta prostrata, l’Éclipte blanche, est une espèce de plantes à fleurs de la famille des Asteraceae et du genre Eclipta, originaire des Amériques mais naturalisée dans le monde entier. C'est une herbacée à larges feuilles plates et à petites fleurs blanches. Elle a beaucoup d'usages médicinaux en Asie notamment.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89clipte_blanche</t>
+          <t>Éclipte_blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante herbacée annuelle. Les tiges sont érigées, ascendantes ou prostrées, mesurant jusqu'à 60 cm, rarement un mètre de haut, pubescentes, ramifiées à la base. Les feuilles sont lancéolées, longues de 3 à 10 cm et larges de 0,5 à 2,5 cm, papuleuses, densément pubescentes sur les deux faces, la base rétrécie, sessiles ou brièvement pétiolées, le bord serrulé, l'extrémité progressivement acuminée[2].
-Appareil reproducteur
-L'inflorescence est un capitule large d'environ 6 mm ; le pédoncule est fin, long de 2 à 4,5 cm ; l'involucre est globuleux-campanulé, long d'environ 5 mm et large de 6 à 7 mm, s'élargissant jusqu'à 11 mm de large dans le fruit ; les phyllaires sont par cinq ou six, en deux séries, oblongs, aigus, les extérieurs plus longs. Les fleurons sont ligulés en deux séries ; la lamelle est longue de 2,5 à 3 mm et large d'environ 0,4 mm, bifide ou entière. De nombreux fleurons sont discoïdes ; la corolle mesure environ 1,5 mm, divisées en quatre lobes. Les fruits sont des akènes d'environ 2,8 mm de long et 1,5 mm de large, à bords côtelés. La floraison a lieu entre juin et septembre en Chine[2], toute l'année, surtout en été-automne, en Amérique du Nord[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée annuelle. Les tiges sont érigées, ascendantes ou prostrées, mesurant jusqu'à 60 cm, rarement un mètre de haut, pubescentes, ramifiées à la base. Les feuilles sont lancéolées, longues de 3 à 10 cm et larges de 0,5 à 2,5 cm, papuleuses, densément pubescentes sur les deux faces, la base rétrécie, sessiles ou brièvement pétiolées, le bord serrulé, l'extrémité progressivement acuminée.
 </t>
         </is>
       </c>
@@ -527,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89clipte_blanche</t>
+          <t>Éclipte_blanche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce, originaire d'Amérique (du sud du Canada jusqu'au Chili), a été introduite dans les climats tempérés à chauds du monde entier[4].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est un capitule large d'environ 6 mm ; le pédoncule est fin, long de 2 à 4,5 cm ; l'involucre est globuleux-campanulé, long d'environ 5 mm et large de 6 à 7 mm, s'élargissant jusqu'à 11 mm de large dans le fruit ; les phyllaires sont par cinq ou six, en deux séries, oblongs, aigus, les extérieurs plus longs. Les fleurons sont ligulés en deux séries ; la lamelle est longue de 2,5 à 3 mm et large d'environ 0,4 mm, bifide ou entière. De nombreux fleurons sont discoïdes ; la corolle mesure environ 1,5 mm, divisées en quatre lobes. Les fruits sont des akènes d'environ 2,8 mm de long et 1,5 mm de large, à bords côtelés. La floraison a lieu entre juin et septembre en Chine, toute l'année, surtout en été-automne, en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -558,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89clipte_blanche</t>
+          <t>Éclipte_blanche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,12 +594,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle pousse sur le bord des rivières, dans les champs, les étangs abandonnés, les bords de routes[2], les lieux humides, souvent rudéraux ; en dessous de 1 600 m[3]. Elle est également perçue comme une mauvaise herbe dans les terres agricoles irriguées telles que les rizières[5].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce, originaire d'Amérique (du sud du Canada jusqu'au Chili), a été introduite dans les climats tempérés à chauds du monde entier.
 </t>
         </is>
       </c>
@@ -589,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89clipte_blanche</t>
+          <t>Éclipte_blanche</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,14 +627,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle pousse sur le bord des rivières, dans les champs, les étangs abandonnés, les bords de routes, les lieux humides, souvent rudéraux ; en dessous de 1 600 m. Elle est également perçue comme une mauvaise herbe dans les terres agricoles irriguées telles que les rizières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Éclipte_blanche</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89clipte_blanche</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été initialement classée dans le genre Verbesina sous le basionyme Verbesina prostrata par le naturaliste suédois Carl von Linné en 1753. Ce dernier la déplace dans le genre Eclipta en 1771, sous le nom correct Eclipta prostrata[1],[4].
-En plus de son nom normalisé « Éclipte blanche »[6], l'espèce porte également en français les noms vernaculaires « Eclipta Couché »[7],[5], « Éclipte droite »[8], « Herbe à l'eau »[8], « Éclipte prostrée »[1] ou encore « Herbe à l'encre »[1].
-Eclipta prostrata a pour synonymes[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été initialement classée dans le genre Verbesina sous le basionyme Verbesina prostrata par le naturaliste suédois Carl von Linné en 1753. Ce dernier la déplace dans le genre Eclipta en 1771, sous le nom correct Eclipta prostrata,.
+En plus de son nom normalisé « Éclipte blanche », l'espèce porte également en français les noms vernaculaires « Eclipta Couché » « Éclipte droite », « Herbe à l'eau », « Éclipte prostrée » ou encore « Herbe à l'encre ».
+Eclipta prostrata a pour synonymes :
 Abasoloa taboada La Llave
 Acmella lanceolata Link ex Spreng.
 Aganippea dentata DC.
@@ -724,33 +782,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89clipte_blanche</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Éclipte_blanche</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89clipte_blanche</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Usages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est largement utilisée dans la phytothérapie chinoise sous le nom Li Chang (鳢肠) ou Mo Han Lian (墨旱蓮). Elle est considérée comme le meilleur remède pour les cheveux et est également utilisée comme rajeunisseur et tonique du foie. La plante entière contient les alcaloïdes nicotine et ecliptine ainsi que de la coumarine. Elle est astringente, désobstruante, dépurative, émétique, fébrifuge, ophtalmique, purgative, styptique et tonique. Elle est utilisée comme antidote pour les morsures de serpent en Corée. La plante est récoltée au moment de la floraison et est séchée pour une utilisation ultérieure. Les racines sont émétiques et purgatives. Elles sont appliquées en externe comme antiseptique sur les ulcères et les plaies, notamment chez les bovins. On obtient de la plante une teinture noire qui est utilisée pour les cheveux et pour le tatouage. En médecine ayurvédique, l'extrait de feuille est considéré comme un puissant tonique du foie, un rajeunisseur, et est particulièrement bon pour les cheveux. Il a également des utilisations externes traditionnelles, comme l'eczéma et la dermatite, sur le cuir chevelu pour traiter la perte de cheveux ; les feuilles ont été utilisées dans le traitement des piqûres de scorpion, également comme antivenin contre les morsures de serpent. En Inde, plus de 2 000 tonnes par an sont consommées par toutes les industries d'herboristerie[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est largement utilisée dans la phytothérapie chinoise sous le nom Li Chang (鳢肠) ou Mo Han Lian (墨旱蓮). Elle est considérée comme le meilleur remède pour les cheveux et est également utilisée comme rajeunisseur et tonique du foie. La plante entière contient les alcaloïdes nicotine et ecliptine ainsi que de la coumarine. Elle est astringente, désobstruante, dépurative, émétique, fébrifuge, ophtalmique, purgative, styptique et tonique. Elle est utilisée comme antidote pour les morsures de serpent en Corée. La plante est récoltée au moment de la floraison et est séchée pour une utilisation ultérieure. Les racines sont émétiques et purgatives. Elles sont appliquées en externe comme antiseptique sur les ulcères et les plaies, notamment chez les bovins. On obtient de la plante une teinture noire qui est utilisée pour les cheveux et pour le tatouage. En médecine ayurvédique, l'extrait de feuille est considéré comme un puissant tonique du foie, un rajeunisseur, et est particulièrement bon pour les cheveux. Il a également des utilisations externes traditionnelles, comme l'eczéma et la dermatite, sur le cuir chevelu pour traiter la perte de cheveux ; les feuilles ont été utilisées dans le traitement des piqûres de scorpion, également comme antivenin contre les morsures de serpent. En Inde, plus de 2 000 tonnes par an sont consommées par toutes les industries d'herboristerie.
 </t>
         </is>
       </c>
